--- a/ieasyreports/templates/example1.xlsx
+++ b/ieasyreports/templates/example1.xlsx
@@ -47,11 +47,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +68,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,9 +119,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -133,37 +149,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:C2"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ieasyreports/templates/example1.xlsx
+++ b/ieasyreports/templates/example1.xlsx
@@ -152,10 +152,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
   </cols>
